--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516754.3589518493</v>
+        <v>521824.9554143007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7329110.254828671</v>
+        <v>7911558.597123712</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>240.731498988925</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>32.773896913958</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.76594660771104</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>126.8805161262531</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>302.282757780368</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.736324272859</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>63.50617658620671</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>166.3197703738373</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>220.9154882489132</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>409.4993862590579</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>129.8977772804409</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3427,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3472,10 +3474,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5134539078253</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3557,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3740,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>388.7943912998808</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34780583513581</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="H44" t="n">
-        <v>245.1555884868718</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>109.4519776932674</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1886.731882523496</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C2" t="n">
-        <v>1448.589409706919</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.679624881363</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>769.51649458952</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>745.6894690391318</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>732.2102786755574</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2737.234686637598</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W2" t="n">
-        <v>2736.419636089035</v>
+        <v>2232.100425464726</v>
       </c>
       <c r="X2" t="n">
-        <v>2721.31757670875</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y2" t="n">
-        <v>2313.031453008403</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>58.04882857612763</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1407.450753927203</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1180.031083241311</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.651074442687</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C5" t="n">
-        <v>640.5086016261107</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D5" t="n">
-        <v>512.3464641248449</v>
+        <v>382.5643610490854</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>732.2102786755574</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1409.675863618363</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1890.615036941736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.379232048631</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1913.236768627942</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.950644927595</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.142905119309</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>872.5811936025335</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>706.7032008040562</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2547.187862480948</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2268.754861734053</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1981.799353604483</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1709.772949190775</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X7" t="n">
-        <v>1464.381194524188</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1236.961523838296</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.3583177265732</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>948.2562489504005</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3868681652491</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>535.6838670561251</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1213.149451998931</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1890.615036941736</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>2568.080621884541</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2568.080621884541</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2568.080621884541</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2073.156929365648</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1654.014465944959</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.728342244613</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>405.3666918594219</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1966.432666470481</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.0341243765137</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>277.891651559937</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1344.116250983141</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="N11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.333694861421</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>732.2102786755574</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>923.3460921744155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>923.3460921744155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>923.3460921744155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>923.3460921744155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1352.296652990805</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>1352.296652990805</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>916.3868681652491</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>482.6121233235442</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1690.073296584035</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2847.121131794586</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>2606.024810596748</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>2186.882347176059</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.596223475713</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>923.3460921744155</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5521,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5759,25 +5761,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6610,7 +6612,7 @@
         <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6889,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,25 +6946,25 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845.683004334921</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>673.1212928181459</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
         <v>673.1212928181459</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1510.313048406387</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1264.9212937398</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1037.501623053908</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7162,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.108475538866</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>1309.108475538866</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1309.108475538866</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>875.3337306971612</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>447.4663011063689</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>732.2102786755574</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N41" t="n">
-        <v>1513.270315736198</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2517.167459510636</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2517.167459510636</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.550509444463</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>2154.550509444463</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>1735.408046023774</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>1735.408046023774</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1142.333694861421</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>704.1912220448448</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>704.1912220448448</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>704.1912220448448</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F44" t="n">
-        <v>704.1912220448448</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G44" t="n">
-        <v>302.7933906681087</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1142.333694861421</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>902.0620785577398</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>729.5003670409648</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D46" t="n">
-        <v>563.6223742424875</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E46" t="n">
-        <v>393.8643704932247</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F46" t="n">
-        <v>393.8643704932247</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.107035919379</v>
+        <v>2586.21326806705</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.674035172484</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V46" t="n">
-        <v>1838.718527042915</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W46" t="n">
-        <v>1566.692122629206</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X46" t="n">
-        <v>1321.300367962619</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1093.880697276727</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L2" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8453,25 +8455,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>46.14594532369222</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>95.36690886591697</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,13 +8692,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>329.9981998526114</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,16 +9169,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>104.640860725086</v>
+        <v>483.121163479806</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>210.6351987283867</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>14.08936903582639</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.9091227626361</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.79268646174609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.589461763087968</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="H44" t="n">
-        <v>41.08326452434412</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.48338453116322</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>682525.7372287443</v>
+        <v>681731.7829125378</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>682525.7372287443</v>
+        <v>681731.7829125378</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>682525.7372287443</v>
+        <v>681731.7829125378</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456022.8743605125</v>
+        <v>656149.4468823979</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456022.8743605125</v>
+        <v>656149.4468823979</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699690.9004396491</v>
+        <v>699690.9004396492</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456022.8743605125</v>
+        <v>656149.4468823979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456022.8743605125</v>
+        <v>656149.4468823979</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269991</v>
+        <v>284091.0958184158</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>284091.0958184157</v>
       </c>
       <c r="G2" t="n">
         <v>302943.1108789776</v>
@@ -26347,13 +26349,13 @@
         <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>284091.0958184159</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>284091.0958184158</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="F4" t="n">
-        <v>53078.16272108944</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="P4" t="n">
-        <v>53078.16272108944</v>
+        <v>76371.6231555609</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159380.4484591444</v>
+        <v>-154890.602468376</v>
       </c>
       <c r="C6" t="n">
-        <v>69947.12651336851</v>
+        <v>68809.09611566865</v>
       </c>
       <c r="D6" t="n">
-        <v>69947.1265133686</v>
+        <v>68809.09611566867</v>
       </c>
       <c r="E6" t="n">
-        <v>102758.7524690182</v>
+        <v>-14211.55639122186</v>
       </c>
       <c r="F6" t="n">
-        <v>102758.7524690182</v>
+        <v>136454.197180526</v>
       </c>
       <c r="G6" t="n">
-        <v>-19007.98699429924</v>
+        <v>114695.4916315344</v>
       </c>
       <c r="H6" t="n">
         <v>143785.3008041422</v>
@@ -26543,25 +26545,25 @@
         <v>143785.3008041422</v>
       </c>
       <c r="J6" t="n">
-        <v>-35259.95728350974</v>
+        <v>-30866.04791356396</v>
       </c>
       <c r="K6" t="n">
-        <v>143785.3008041422</v>
+        <v>143785.3008041421</v>
       </c>
       <c r="L6" t="n">
         <v>143785.3008041422</v>
       </c>
       <c r="M6" t="n">
-        <v>143785.3008041421</v>
+        <v>18034.21246845141</v>
       </c>
       <c r="N6" t="n">
         <v>143785.3008041422</v>
       </c>
       <c r="O6" t="n">
-        <v>102758.7524690182</v>
+        <v>136454.1971805262</v>
       </c>
       <c r="P6" t="n">
-        <v>102758.7524690182</v>
+        <v>136454.1971805261</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>188.7054984043627</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>326.2168836515537</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.1344859240862</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>304.6701708510468</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.1542396129198</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.3002505071997</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>370.2548715022042</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9863699957341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L2" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7971447710838</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,25 +35175,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>46.14594532369222</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>95.36690886591697</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35410,13 +35412,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>329.9981998526114</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,16 +35889,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,22 +36129,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O26" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37312,22 +37314,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>104.640860725086</v>
+        <v>483.121163479806</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521824.9554143007</v>
+        <v>521218.8677854037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074004</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797153</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>32.773896913958</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>42.15454411770359</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>13.99728392830417</v>
+        <v>101.7706336613754</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>302.282757780368</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>63.50617658620671</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,13 +1144,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>90.29969376364048</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>296.8022056924794</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119205</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1618,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>409.4993862590579</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>21.87520451048465</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>130.983089089443</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193494</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3985,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>17.55115381536141</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753895</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.412671899186</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.310603123013</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,22 +4333,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>518.3865980530361</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1840.066707136593</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>2500.906761678371</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678371</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2636.955880053692</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>2232.100425464726</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.957962044036</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.67183834369</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2634.504334502149</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>852.5762146508135</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C5" t="n">
-        <v>818.474145874641</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>382.5643610490854</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4603,16 +4603,16 @@
         <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795664</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1278.875785135721</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D7" t="n">
         <v>794.0196728252577</v>
@@ -4764,13 +4764,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1678.133681136788</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1072.643441777775</v>
       </c>
       <c r="C8" t="n">
-        <v>947.3295611191371</v>
+        <v>634.5009689611982</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>198.5911841356427</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>168.8568433343419</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>145.0298177839537</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>145.0298177839537</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1503.188731922625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1094.902608222279</v>
       </c>
     </row>
     <row r="9">
@@ -4989,10 +4989,10 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
         <v>2356.071333755254</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>3144.542240397637</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>3144.542240397637</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055493</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238916</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.31074241336</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716556</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F14" t="n">
-        <v>382.9002538756374</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L14" t="n">
-        <v>1690.073296584035</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2847.121131794586</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>3972.852115231033</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3972.852115231033</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250403</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661436</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240747</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.6625705404</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.266136395785</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C16" t="n">
-        <v>771.7044248790099</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D16" t="n">
-        <v>605.8264320805326</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E16" t="n">
-        <v>436.0684283312698</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F16" t="n">
-        <v>259.361374293026</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G16" t="n">
         <v>93.77009931885368</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.190540178969</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.311093757424</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.878093010529</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.92258488096</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.896180467251</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.504425800664</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.084755114772</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,22 +6545,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6782,22 +6782,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>627.8908706638467</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>226.4930392871106</v>
       </c>
       <c r="H41" t="n">
         <v>94.18688869171368</v>
@@ -7411,28 +7411,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K41" t="n">
-        <v>529.0247867717716</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L41" t="n">
-        <v>529.0247867717716</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>1686.072621982323</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
@@ -7444,19 +7444,19 @@
         <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316576</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240747</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.6625705404</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H43" t="n">
         <v>182.4300485441784</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T43" t="n">
-        <v>2674.873217292374</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U43" t="n">
-        <v>2396.440216545479</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002202</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="44">
@@ -7633,43 +7633,43 @@
         <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808633</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L44" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
@@ -7730,22 +7730,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="P45" t="n">
-        <v>1099.098144071247</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="Q45" t="n">
         <v>1639.837082703323</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886354</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901581</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408953</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026515</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284792</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
         <v>93.77009931885368</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.011887927025</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2586.21326806705</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2307.780267320155</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>2020.824759190585</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.798354776877</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.406600110289</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424398</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>329.9981998526114</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>239.9071053991105</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>483.121163479806</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>630.4235620779154</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442328</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.08936903582639</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>155.2557639217729</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>90.92021546249566</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875792</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699690.9004396491</v>
+        <v>699690.9004396492</v>
       </c>
     </row>
     <row r="12">
@@ -26319,13 +26319,13 @@
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
+        <v>284091.0958184159</v>
+      </c>
+      <c r="F2" t="n">
         <v>284091.0958184158</v>
-      </c>
-      <c r="F2" t="n">
-        <v>284091.0958184157</v>
       </c>
       <c r="G2" t="n">
         <v>302943.1108789776</v>
@@ -26352,7 +26352,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>284091.0958184159</v>
+        <v>284091.0958184158</v>
       </c>
       <c r="P2" t="n">
         <v>284091.0958184158</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="C4" t="n">
         <v>165263.0882595584</v>
@@ -26426,16 +26426,16 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>76371.6231555609</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="F4" t="n">
-        <v>76371.6231555609</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26444,7 +26444,7 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26459,7 +26459,7 @@
         <v>76371.62315556088</v>
       </c>
       <c r="P4" t="n">
-        <v>76371.6231555609</v>
+        <v>76371.62315556088</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154890.602468376</v>
+        <v>-154890.6024683761</v>
       </c>
       <c r="C6" t="n">
-        <v>68809.09611566865</v>
+        <v>68809.09611566864</v>
       </c>
       <c r="D6" t="n">
-        <v>68809.09611566867</v>
+        <v>68809.09611566858</v>
       </c>
       <c r="E6" t="n">
-        <v>-14211.55639122186</v>
+        <v>-14316.74601347644</v>
       </c>
       <c r="F6" t="n">
-        <v>136454.197180526</v>
+        <v>136349.0075582715</v>
       </c>
       <c r="G6" t="n">
-        <v>114695.4916315344</v>
+        <v>114672.2672921518</v>
       </c>
       <c r="H6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647596</v>
       </c>
       <c r="I6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="J6" t="n">
-        <v>-30866.04791356396</v>
+        <v>-30889.2722529466</v>
       </c>
       <c r="K6" t="n">
-        <v>143785.3008041421</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="L6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="M6" t="n">
-        <v>18034.21246845141</v>
+        <v>18010.98812906869</v>
       </c>
       <c r="N6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="O6" t="n">
-        <v>136454.1971805262</v>
+        <v>136349.0075582715</v>
       </c>
       <c r="P6" t="n">
-        <v>136454.1971805261</v>
+        <v>136349.0075582715</v>
       </c>
     </row>
   </sheetData>
@@ -27381,73 +27381,73 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T2" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U2" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V2" t="n">
-        <v>326.2168836515537</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>372.7964946687788</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>143.6516710866791</v>
+        <v>55.87832135360793</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>127.1542396129198</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>117.7661826744371</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>370.2548715022042</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>195.9391592475754</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N2" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>329.9981998526114</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>239.9071053991105</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>483.121163479806</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>630.4235620779154</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
